--- a/HoldingsInfofromMODS/agruetsc_Hathi.xlsx
+++ b/HoldingsInfofromMODS/agruetsc_Hathi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meredith/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meredith/Documents/GitHub/ProjectCeres/HoldingsInfofromMODS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB78E0F-3407-6348-AD67-229552BFFC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D0641-6523-EF46-85AC-8C41D1CF6687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="1020" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agruetsc_Hathi" sheetId="1" r:id="rId1"/>
@@ -2324,7 +2324,7 @@
   <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
